--- a/Python/ExcelToMarkdown/ExcelToMarkdown3.xlsx
+++ b/Python/ExcelToMarkdown/ExcelToMarkdown3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fya\Documents\신랑\개발\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA33FD9A-A416-4CBD-BD12-CD20C13C64CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E01D06-040B-42C1-BBF8-99C2AD109B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2355" windowWidth="22740" windowHeight="12495" activeTab="1" xr2:uid="{8F5EE6FA-EB67-440A-B7A5-BC2C6619BF45}"/>
+    <workbookView xWindow="8730" yWindow="1845" windowWidth="22740" windowHeight="12495" activeTab="1" xr2:uid="{8F5EE6FA-EB67-440A-B7A5-BC2C6619BF45}"/>
   </bookViews>
   <sheets>
-    <sheet name="a" sheetId="2" r:id="rId1"/>
-    <sheet name="1" sheetId="1" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet name="a" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Col1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ficial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ficial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +478,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -520,9 +530,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE376FD9-DF70-46C2-A65B-6D1DBF4CB0A0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -544,25 +556,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
